--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/10/seed2/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.412</v>
+        <v>-12.992</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -791,7 +791,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.168</v>
+        <v>-12.499</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.21</v>
+        <v>-12.594</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.876</v>
+        <v>-12.37</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.309999999999999</v>
+        <v>-8.484</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.385999999999999</v>
+        <v>-8.312000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.624000000000001</v>
+        <v>-7.747</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.034000000000001</v>
+        <v>-7.475</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1304,7 +1304,7 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.488</v>
+        <v>-8.434000000000001</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.529999999999999</v>
+        <v>-7.568</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1335,7 +1335,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-11.444</v>
+        <v>-11.193</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.890000000000001</v>
+        <v>-8.065000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.184000000000001</v>
+        <v>-8.288</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1403,10 +1403,10 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.31</v>
+        <v>-13.565</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.824000000000002</v>
+        <v>-8.559000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.184</v>
+        <v>-13.077</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.956</v>
+        <v>-10.676</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.156000000000001</v>
+        <v>-8.004000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.904</v>
+        <v>-12.013</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1845,7 +1845,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.169</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-5.982</v>
+        <v>-6.702</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.303999999999999</v>
+        <v>-7.602000000000001</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-12.302</v>
+        <v>-11.511</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
